--- a/Docs/Очистка - описание/Последовательности.xlsx
+++ b/Docs/Очистка - описание/Последовательности.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitProjects\GardenCleanWater\Docs\Очистка - описание\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59CDBD3A-A8ED-4748-A861-D85C46C79B9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88573F6C-1C30-4DA3-94A8-02118EA04D13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="бочка отстойник" sheetId="1" r:id="rId1"/>
@@ -243,16 +243,16 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -537,8 +537,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -573,13 +573,13 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>19</v>
@@ -608,13 +608,13 @@
         <v>11</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>6</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>23</v>
@@ -646,10 +646,10 @@
         <v>22</v>
       </c>
       <c r="G3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>22</v>
       </c>
       <c r="I3" s="4" t="s">
         <v>23</v>
@@ -678,10 +678,10 @@
         <v>13</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>21</v>
@@ -713,13 +713,13 @@
         <v>15</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>22</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I5" s="4" t="s">
         <v>25</v>
@@ -783,10 +783,10 @@
         <v>11</v>
       </c>
       <c r="F7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>22</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>22</v>
@@ -802,26 +802,26 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="10" t="s">
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="E11" s="10"/>
+      <c r="E11" s="9"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="8" t="s">
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="E12" s="8"/>
+      <c r="E12" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -839,8 +839,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{346D59A2-DD57-4122-92D1-5772D573E588}">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -904,7 +904,7 @@
         <v>23</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -956,30 +956,30 @@
         <v>24</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="10" t="s">
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="E8" s="10"/>
+      <c r="E8" s="9"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="8" t="s">
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="8"/>
+      <c r="E9" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/Docs/Очистка - описание/Последовательности.xlsx
+++ b/Docs/Очистка - описание/Последовательности.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitProjects\GardenCleanWater\Docs\Очистка - описание\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88573F6C-1C30-4DA3-94A8-02118EA04D13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5D347D8-38EE-4CCB-9AB0-6203E7D1C5C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -202,7 +202,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -225,11 +225,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -254,6 +265,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -840,7 +854,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -881,33 +895,33 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" s="2" t="s">
+      <c r="F2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="H2" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -929,8 +943,8 @@
       <c r="G3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="3" t="s">
-        <v>37</v>
+      <c r="H3" s="11" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">

--- a/Docs/Очистка - описание/Последовательности.xlsx
+++ b/Docs/Очистка - описание/Последовательности.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitProjects\GardenCleanWater\Docs\Очистка - описание\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5D347D8-38EE-4CCB-9AB0-6203E7D1C5C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1168C0B3-02F9-4024-B9B1-65B73B5EB319}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="бочка отстойник" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="49">
   <si>
     <t>№ шага</t>
   </si>
@@ -118,9 +118,6 @@
     <t>Слив чистой воды</t>
   </si>
   <si>
-    <t>сработал S4</t>
-  </si>
-  <si>
     <t>Действие D4</t>
   </si>
   <si>
@@ -166,10 +163,16 @@
     <t>Действие по окончании цикла</t>
   </si>
   <si>
-    <t>Исключить себя из очереди</t>
-  </si>
-  <si>
     <t>Не сработал S5</t>
+  </si>
+  <si>
+    <t>не сработан H</t>
+  </si>
+  <si>
+    <t>шаг 2 чистой бочки заблокирован</t>
+  </si>
+  <si>
+    <t>Исключить себя из очереди, сбросить последовательность чистой бочки</t>
   </si>
 </sst>
 </file>
@@ -240,7 +243,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -254,6 +257,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -266,8 +272,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -551,8 +557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -560,7 +566,7 @@
     <col min="1" max="1" width="8" customWidth="1"/>
     <col min="2" max="2" width="18.140625" customWidth="1"/>
     <col min="3" max="3" width="23.140625" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" customWidth="1"/>
+    <col min="4" max="4" width="23" customWidth="1"/>
     <col min="5" max="5" width="19.7109375" customWidth="1"/>
     <col min="6" max="6" width="12" customWidth="1"/>
     <col min="7" max="7" width="12.28515625" customWidth="1"/>
@@ -602,7 +608,7 @@
         <v>20</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -619,7 +625,7 @@
         <v>9</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>22</v>
@@ -777,7 +783,7 @@
         <v>28</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -788,10 +794,10 @@
         <v>29</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>30</v>
+        <v>43</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>47</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>11</v>
@@ -816,26 +822,26 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="10"/>
+    </row>
+    <row r="12" spans="1:11" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="E11" s="9"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E12" s="10"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -853,8 +859,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{346D59A2-DD57-4122-92D1-5772D573E588}">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -886,13 +892,13 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="H1" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -903,13 +909,13 @@
         <v>5</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>22</v>
@@ -918,7 +924,7 @@
         <v>23</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -926,7 +932,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>8</v>
@@ -935,7 +941,7 @@
         <v>9</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>21</v>
@@ -943,7 +949,7 @@
       <c r="G3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="7" t="s">
         <v>6</v>
       </c>
     </row>
@@ -952,13 +958,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>9</v>
@@ -974,26 +980,26 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="E8" s="9"/>
+      <c r="A8" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="10"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="10" t="s">
+      <c r="A9" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="10"/>
+      <c r="E9" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/Docs/Очистка - описание/Последовательности.xlsx
+++ b/Docs/Очистка - описание/Последовательности.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitProjects\GardenCleanWater\Docs\Очистка - описание\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1168C0B3-02F9-4024-B9B1-65B73B5EB319}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97BA26B5-CC34-4699-8F09-D123B67DE4E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="бочка отстойник" sheetId="1" r:id="rId1"/>
     <sheet name="чистая бочка" sheetId="2" r:id="rId2"/>
+    <sheet name="диагностика по светодиоду" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="67">
   <si>
     <t>№ шага</t>
   </si>
@@ -151,12 +152,6 @@
     <t>Условие сброса всего цикла:</t>
   </si>
   <si>
-    <t>5 шаг бочки отстойника завершен</t>
-  </si>
-  <si>
-    <t>5 шаг бочки отстойника 1 очереди завершен</t>
-  </si>
-  <si>
     <t>разрешение от чистой бочки</t>
   </si>
   <si>
@@ -173,13 +168,73 @@
   </si>
   <si>
     <t>Исключить себя из очереди, сбросить последовательность чистой бочки</t>
+  </si>
+  <si>
+    <t>6 шаг бочки отстойника 1 очереди завершен</t>
+  </si>
+  <si>
+    <t>6 шаг бочки отстойника завершен</t>
+  </si>
+  <si>
+    <t>Расшифровка</t>
+  </si>
+  <si>
+    <t>Чистый бак</t>
+  </si>
+  <si>
+    <t>Бак отстойник 1</t>
+  </si>
+  <si>
+    <t>Бак отстойник 2</t>
+  </si>
+  <si>
+    <t>Бак отстойник 3</t>
+  </si>
+  <si>
+    <t>От 1 до 6</t>
+  </si>
+  <si>
+    <t>Количество раз подряд</t>
+  </si>
+  <si>
+    <t>Порядок</t>
+  </si>
+  <si>
+    <t>От 1 до 3</t>
+  </si>
+  <si>
+    <t>Длительность, мс</t>
+  </si>
+  <si>
+    <t>Состояние светодиода</t>
+  </si>
+  <si>
+    <t>Светится</t>
+  </si>
+  <si>
+    <t>Не светится</t>
+  </si>
+  <si>
+    <t>Текущий шаг чистого бака</t>
+  </si>
+  <si>
+    <t>Текущий шаг бака отстойника 1</t>
+  </si>
+  <si>
+    <t>Текущий шаг бака отстойника 2</t>
+  </si>
+  <si>
+    <t>Текущий шаг бака отстойника 3</t>
+  </si>
+  <si>
+    <t>Разделитель</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -196,16 +251,61 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -239,11 +339,153 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -270,10 +512,137 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -557,8 +926,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -613,7 +982,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>5</v>
@@ -625,7 +994,7 @@
         <v>9</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>22</v>
@@ -648,7 +1017,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>7</v>
@@ -683,7 +1052,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>12</v>
@@ -718,7 +1087,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>14</v>
@@ -753,7 +1122,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>26</v>
@@ -788,16 +1157,16 @@
     </row>
     <row r="7" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>29</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>11</v>
@@ -828,20 +1197,20 @@
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E11" s="10"/>
     </row>
     <row r="12" spans="1:11" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
-      <c r="D12" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E12" s="12"/>
+      <c r="D12" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -860,7 +1229,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -903,13 +1272,13 @@
     </row>
     <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
@@ -929,7 +1298,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>32</v>
@@ -955,7 +1324,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>35</v>
@@ -986,20 +1355,20 @@
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
       <c r="D8" s="10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E8" s="10"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="11"/>
+      <c r="E9" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1010,4 +1379,315 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F133433-D4FA-4238-BCBE-497478B434EE}">
+  <dimension ref="A1:F17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" customWidth="1"/>
+    <col min="3" max="3" width="22.140625" customWidth="1"/>
+    <col min="4" max="4" width="23.140625" customWidth="1"/>
+    <col min="5" max="5" width="31.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="54" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="54" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="55" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="54" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" s="54" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" s="13"/>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="14">
+        <v>1</v>
+      </c>
+      <c r="B2" s="14">
+        <v>3000</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" s="14">
+        <v>1</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="16">
+        <v>2.1</v>
+      </c>
+      <c r="B3" s="17">
+        <v>300</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="20">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B4" s="21">
+        <v>200</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" s="22"/>
+      <c r="E4" s="23" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="15">
+        <v>3</v>
+      </c>
+      <c r="B5" s="15">
+        <v>3000</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" s="15">
+        <v>1</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="24">
+        <v>4</v>
+      </c>
+      <c r="B6" s="24">
+        <v>1000</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" s="24">
+        <v>1</v>
+      </c>
+      <c r="E6" s="24" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="26">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="B7" s="27">
+        <v>300</v>
+      </c>
+      <c r="C7" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" s="29" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="30">
+        <v>5.2</v>
+      </c>
+      <c r="B8" s="31">
+        <v>200</v>
+      </c>
+      <c r="C8" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="D8" s="32"/>
+      <c r="E8" s="33" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="25">
+        <v>6</v>
+      </c>
+      <c r="B9" s="25">
+        <v>3000</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" s="25">
+        <v>1</v>
+      </c>
+      <c r="E9" s="25" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="34">
+        <v>7</v>
+      </c>
+      <c r="B10" s="34">
+        <v>1000</v>
+      </c>
+      <c r="C10" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" s="34">
+        <v>2</v>
+      </c>
+      <c r="E10" s="34" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="36">
+        <v>8.1</v>
+      </c>
+      <c r="B11" s="37">
+        <v>300</v>
+      </c>
+      <c r="C11" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" s="39" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="40">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="B12" s="41">
+        <v>200</v>
+      </c>
+      <c r="C12" s="41" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" s="42"/>
+      <c r="E12" s="43" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="35">
+        <v>9</v>
+      </c>
+      <c r="B13" s="35">
+        <v>3000</v>
+      </c>
+      <c r="C13" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" s="35">
+        <v>1</v>
+      </c>
+      <c r="E13" s="35" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="44">
+        <v>10</v>
+      </c>
+      <c r="B14" s="44">
+        <v>1000</v>
+      </c>
+      <c r="C14" s="44" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" s="44">
+        <v>3</v>
+      </c>
+      <c r="E14" s="44" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="46">
+        <v>11.1</v>
+      </c>
+      <c r="B15" s="47">
+        <v>300</v>
+      </c>
+      <c r="C15" s="47" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" s="48" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" s="49" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="50">
+        <v>11.2</v>
+      </c>
+      <c r="B16" s="51">
+        <v>200</v>
+      </c>
+      <c r="C16" s="51" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16" s="52"/>
+      <c r="E16" s="53" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="45">
+        <v>12</v>
+      </c>
+      <c r="B17" s="45">
+        <v>3000</v>
+      </c>
+      <c r="C17" s="45" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" s="45">
+        <v>1</v>
+      </c>
+      <c r="E17" s="45" t="s">
+        <v>66</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="D15:D16"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Docs/Очистка - описание/Последовательности.xlsx
+++ b/Docs/Очистка - описание/Последовательности.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitProjects\GardenCleanWater\Docs\Очистка - описание\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97BA26B5-CC34-4699-8F09-D123B67DE4E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BAEF4D7-4F89-4B4D-A3C1-24B6DADDE968}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -502,6 +502,109 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -517,132 +620,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -927,7 +927,7 @@
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1191,26 +1191,26 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="10" t="s">
+      <c r="B11" s="43"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="E11" s="10"/>
+      <c r="E11" s="45"/>
     </row>
     <row r="12" spans="1:11" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="11" t="s">
+      <c r="B12" s="44"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="E12" s="11"/>
+      <c r="E12" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1349,26 +1349,26 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="10" t="s">
+      <c r="B8" s="43"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="E8" s="10"/>
+      <c r="E8" s="45"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="12" t="s">
+      <c r="B9" s="44"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="12"/>
+      <c r="E9" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1386,7 +1386,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1399,284 +1399,284 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="54" t="s">
+      <c r="B1" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="55" t="s">
+      <c r="C1" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="D1" s="54" t="s">
+      <c r="D1" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="E1" s="54" t="s">
+      <c r="E1" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="F1" s="13"/>
+      <c r="F1" s="8"/>
     </row>
     <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="14">
+      <c r="A2" s="9">
         <v>1</v>
       </c>
-      <c r="B2" s="14">
+      <c r="B2" s="9">
         <v>3000</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="D2" s="14">
+      <c r="D2" s="9">
         <v>1</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="9" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="16">
+      <c r="A3" s="11">
         <v>2.1</v>
       </c>
-      <c r="B3" s="17">
+      <c r="B3" s="12">
         <v>300</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="E3" s="13" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="20">
+      <c r="A4" s="14">
         <v>2.2000000000000002</v>
       </c>
-      <c r="B4" s="21">
+      <c r="B4" s="15">
         <v>200</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="D4" s="22"/>
-      <c r="E4" s="23" t="s">
+      <c r="D4" s="49"/>
+      <c r="E4" s="16" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="15">
+      <c r="A5" s="10">
         <v>3</v>
       </c>
-      <c r="B5" s="15">
+      <c r="B5" s="10">
         <v>3000</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="10">
         <v>1</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="E5" s="10" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="24">
+      <c r="A6" s="17">
         <v>4</v>
       </c>
-      <c r="B6" s="24">
+      <c r="B6" s="17">
         <v>1000</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="D6" s="24">
+      <c r="D6" s="17">
         <v>1</v>
       </c>
-      <c r="E6" s="24" t="s">
+      <c r="E6" s="17" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="26">
+      <c r="A7" s="19">
         <v>5.0999999999999996</v>
       </c>
-      <c r="B7" s="27">
+      <c r="B7" s="20">
         <v>300</v>
       </c>
-      <c r="C7" s="27" t="s">
+      <c r="C7" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="D7" s="28" t="s">
+      <c r="D7" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="E7" s="29" t="s">
+      <c r="E7" s="21" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="30">
+      <c r="A8" s="22">
         <v>5.2</v>
       </c>
-      <c r="B8" s="31">
+      <c r="B8" s="23">
         <v>200</v>
       </c>
-      <c r="C8" s="31" t="s">
+      <c r="C8" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="D8" s="32"/>
-      <c r="E8" s="33" t="s">
+      <c r="D8" s="51"/>
+      <c r="E8" s="24" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="25">
+      <c r="A9" s="18">
         <v>6</v>
       </c>
-      <c r="B9" s="25">
+      <c r="B9" s="18">
         <v>3000</v>
       </c>
-      <c r="C9" s="25" t="s">
+      <c r="C9" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="D9" s="25">
+      <c r="D9" s="18">
         <v>1</v>
       </c>
-      <c r="E9" s="25" t="s">
+      <c r="E9" s="18" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="34">
+      <c r="A10" s="25">
         <v>7</v>
       </c>
-      <c r="B10" s="34">
+      <c r="B10" s="25">
         <v>1000</v>
       </c>
-      <c r="C10" s="34" t="s">
+      <c r="C10" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="D10" s="34">
+      <c r="D10" s="25">
         <v>2</v>
       </c>
-      <c r="E10" s="34" t="s">
+      <c r="E10" s="25" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="36">
+      <c r="A11" s="27">
         <v>8.1</v>
       </c>
-      <c r="B11" s="37">
+      <c r="B11" s="28">
         <v>300</v>
       </c>
-      <c r="C11" s="37" t="s">
+      <c r="C11" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="D11" s="38" t="s">
+      <c r="D11" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="E11" s="39" t="s">
+      <c r="E11" s="29" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="40">
+      <c r="A12" s="30">
         <v>8.1999999999999993</v>
       </c>
-      <c r="B12" s="41">
+      <c r="B12" s="31">
         <v>200</v>
       </c>
-      <c r="C12" s="41" t="s">
+      <c r="C12" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="D12" s="42"/>
-      <c r="E12" s="43" t="s">
+      <c r="D12" s="53"/>
+      <c r="E12" s="32" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="35">
+      <c r="A13" s="26">
         <v>9</v>
       </c>
-      <c r="B13" s="35">
+      <c r="B13" s="26">
         <v>3000</v>
       </c>
-      <c r="C13" s="35" t="s">
+      <c r="C13" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="D13" s="35">
+      <c r="D13" s="26">
         <v>1</v>
       </c>
-      <c r="E13" s="35" t="s">
+      <c r="E13" s="26" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="44">
+      <c r="A14" s="33">
         <v>10</v>
       </c>
-      <c r="B14" s="44">
+      <c r="B14" s="33">
         <v>1000</v>
       </c>
-      <c r="C14" s="44" t="s">
+      <c r="C14" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="D14" s="44">
+      <c r="D14" s="33">
         <v>3</v>
       </c>
-      <c r="E14" s="44" t="s">
+      <c r="E14" s="33" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="46">
+      <c r="A15" s="35">
         <v>11.1</v>
       </c>
-      <c r="B15" s="47">
+      <c r="B15" s="36">
         <v>300</v>
       </c>
-      <c r="C15" s="47" t="s">
+      <c r="C15" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="D15" s="48" t="s">
+      <c r="D15" s="54" t="s">
         <v>54</v>
       </c>
-      <c r="E15" s="49" t="s">
+      <c r="E15" s="37" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="50">
+      <c r="A16" s="38">
         <v>11.2</v>
       </c>
-      <c r="B16" s="51">
+      <c r="B16" s="39">
         <v>200</v>
       </c>
-      <c r="C16" s="51" t="s">
+      <c r="C16" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="D16" s="52"/>
-      <c r="E16" s="53" t="s">
+      <c r="D16" s="55"/>
+      <c r="E16" s="40" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="45">
+      <c r="A17" s="34">
         <v>12</v>
       </c>
-      <c r="B17" s="45">
+      <c r="B17" s="34">
         <v>3000</v>
       </c>
-      <c r="C17" s="45" t="s">
+      <c r="C17" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="D17" s="45">
+      <c r="D17" s="34">
         <v>1</v>
       </c>
-      <c r="E17" s="45" t="s">
+      <c r="E17" s="34" t="s">
         <v>66</v>
       </c>
     </row>

--- a/Docs/Очистка - описание/Последовательности.xlsx
+++ b/Docs/Очистка - описание/Последовательности.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitProjects\GardenCleanWater\Docs\Очистка - описание\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BAEF4D7-4F89-4B4D-A3C1-24B6DADDE968}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5E9D697-5077-475C-8C71-D587C01B9EDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="бочка отстойник" sheetId="1" r:id="rId1"/>
@@ -137,9 +137,6 @@
     <t>Заполнение бочки</t>
   </si>
   <si>
-    <t>дать разрешение бочке отстойника из очереди</t>
-  </si>
-  <si>
     <t>Сработал S4</t>
   </si>
   <si>
@@ -167,12 +164,6 @@
     <t>шаг 2 чистой бочки заблокирован</t>
   </si>
   <si>
-    <t>Исключить себя из очереди, сбросить последовательность чистой бочки</t>
-  </si>
-  <si>
-    <t>6 шаг бочки отстойника 1 очереди завершен</t>
-  </si>
-  <si>
     <t>6 шаг бочки отстойника завершен</t>
   </si>
   <si>
@@ -228,6 +219,15 @@
   </si>
   <si>
     <t>Разделитель</t>
+  </si>
+  <si>
+    <t>Исключить себя из очереди, сбросить последовательность чистой бочки (в случае если сливается текущая бочка отстойник)</t>
+  </si>
+  <si>
+    <t>6 шаг бочки отстойника первой очереди завершен</t>
+  </si>
+  <si>
+    <t>дать разрешение бочке отстойника из первой очереди</t>
   </si>
 </sst>
 </file>
@@ -260,14 +260,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -304,8 +306,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -335,17 +343,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -477,6 +474,92 @@
         <color indexed="64"/>
       </top>
       <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -485,164 +568,245 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -926,13 +1090,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8" customWidth="1"/>
+    <col min="1" max="1" width="5.28515625" customWidth="1"/>
     <col min="2" max="2" width="18.140625" customWidth="1"/>
     <col min="3" max="3" width="23.140625" customWidth="1"/>
     <col min="4" max="4" width="23" customWidth="1"/>
@@ -945,272 +1109,272 @@
     <col min="11" max="11" width="30.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="47" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
+      <c r="A2" s="48">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="61" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="67" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="61" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="61" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="67" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="67" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="62" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="50">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="68" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="68" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="70" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="68" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="68" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" s="63" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="50">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="70" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="68" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="70" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="68" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" s="68" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4" s="63" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="50">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="70" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="68" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="68" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="J5" s="70" t="s">
+        <v>24</v>
+      </c>
+      <c r="K5" s="63" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="50">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="68" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="68" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="68" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" s="68" t="s">
+        <v>23</v>
+      </c>
+      <c r="J6" s="70" t="s">
+        <v>28</v>
+      </c>
+      <c r="K6" s="63" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="52">
+        <v>6</v>
+      </c>
+      <c r="B7" s="64" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="65" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="E7" s="64" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="69" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G7" s="71" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" s="69" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7" s="69" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7" s="69" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
-        <v>5</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
-        <v>6</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" s="5" t="s">
+    </row>
+    <row r="11" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="55" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="55"/>
+      <c r="C11" s="55"/>
+      <c r="D11" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="E11" s="55"/>
+    </row>
+    <row r="12" spans="1:11" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="72" t="s">
         <v>45</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="43" t="s">
-        <v>40</v>
-      </c>
-      <c r="B11" s="43"/>
-      <c r="C11" s="43"/>
-      <c r="D11" s="45" t="s">
-        <v>42</v>
-      </c>
-      <c r="E11" s="45"/>
-    </row>
-    <row r="12" spans="1:11" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="44" t="s">
-        <v>48</v>
-      </c>
-      <c r="B12" s="44"/>
-      <c r="C12" s="44"/>
-      <c r="D12" s="46" t="s">
-        <v>46</v>
-      </c>
-      <c r="E12" s="46"/>
+      <c r="B12" s="73"/>
+      <c r="C12" s="73"/>
+      <c r="D12" s="74" t="s">
+        <v>64</v>
+      </c>
+      <c r="E12" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1229,146 +1393,146 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.28515625" customWidth="1"/>
+    <col min="1" max="1" width="5.28515625" customWidth="1"/>
     <col min="2" max="2" width="18.5703125" customWidth="1"/>
     <col min="3" max="3" width="23" customWidth="1"/>
     <col min="4" max="4" width="13.5703125" customWidth="1"/>
     <col min="5" max="5" width="33.140625" customWidth="1"/>
     <col min="6" max="6" width="12.7109375" customWidth="1"/>
     <col min="7" max="7" width="13.42578125" customWidth="1"/>
-    <col min="8" max="8" width="27.5703125" customWidth="1"/>
+    <col min="8" max="8" width="31.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="47" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
+    <row r="2" spans="1:8" s="79" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="48">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D2" s="4" t="s">
+      <c r="C2" s="49" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="56" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="78" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="50">
+        <v>2</v>
+      </c>
+      <c r="B3" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="45" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="59" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="57" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="51" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="52">
+        <v>3</v>
+      </c>
+      <c r="B4" s="53" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="53" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="53" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="53" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="58" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="60" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="54" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="55" t="s">
         <v>39</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" s="7" t="s">
+      <c r="B8" s="55"/>
+      <c r="C8" s="55"/>
+      <c r="D8" s="55" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="55"/>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="72" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9" s="73"/>
+      <c r="C9" s="73"/>
+      <c r="D9" s="76" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="43" t="s">
-        <v>40</v>
-      </c>
-      <c r="B8" s="43"/>
-      <c r="C8" s="43"/>
-      <c r="D8" s="45" t="s">
-        <v>42</v>
-      </c>
-      <c r="E8" s="45"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="44" t="s">
-        <v>47</v>
-      </c>
-      <c r="B9" s="44"/>
-      <c r="C9" s="44"/>
-      <c r="D9" s="47" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" s="47"/>
+      <c r="E9" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1385,8 +1549,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F133433-D4FA-4238-BCBE-497478B434EE}">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1399,285 +1563,285 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="80" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="D1" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" s="2"/>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <v>3000</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="3">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <v>2.1</v>
+      </c>
+      <c r="B3" s="6">
+        <v>300</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="42" t="s">
+      <c r="D3" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B4" s="9">
+        <v>200</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" s="37"/>
+      <c r="E4" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="D1" s="41" t="s">
-        <v>55</v>
-      </c>
-      <c r="E1" s="41" t="s">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4">
+        <v>3000</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" s="4">
+        <v>1</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="11">
+        <v>4</v>
+      </c>
+      <c r="B6" s="11">
+        <v>1000</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" s="11">
+        <v>1</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="13">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="B7" s="14">
+        <v>300</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="16">
+        <v>5.2</v>
+      </c>
+      <c r="B8" s="17">
+        <v>200</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" s="39"/>
+      <c r="E8" s="18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="12">
+        <v>6</v>
+      </c>
+      <c r="B9" s="12">
+        <v>3000</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" s="12">
+        <v>1</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="19">
+        <v>7</v>
+      </c>
+      <c r="B10" s="19">
+        <v>1000</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" s="19">
+        <v>2</v>
+      </c>
+      <c r="E10" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="F1" s="8"/>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="9">
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="21">
+        <v>8.1</v>
+      </c>
+      <c r="B11" s="22">
+        <v>300</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" s="23" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="24">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="B12" s="25">
+        <v>200</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" s="41"/>
+      <c r="E12" s="26" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="20">
+        <v>9</v>
+      </c>
+      <c r="B13" s="20">
+        <v>3000</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" s="20">
         <v>1</v>
       </c>
-      <c r="B2" s="9">
+      <c r="E13" s="20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="27">
+        <v>10</v>
+      </c>
+      <c r="B14" s="27">
+        <v>1000</v>
+      </c>
+      <c r="C14" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" s="27">
+        <v>3</v>
+      </c>
+      <c r="E14" s="27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="29">
+        <v>11.1</v>
+      </c>
+      <c r="B15" s="30">
+        <v>300</v>
+      </c>
+      <c r="C15" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" s="42" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" s="31" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="32">
+        <v>11.2</v>
+      </c>
+      <c r="B16" s="33">
+        <v>200</v>
+      </c>
+      <c r="C16" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" s="43"/>
+      <c r="E16" s="34" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="28">
+        <v>12</v>
+      </c>
+      <c r="B17" s="28">
         <v>3000</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="D2" s="9">
+      <c r="C17" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" s="28">
         <v>1</v>
       </c>
-      <c r="E2" s="9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="11">
-        <v>2.1</v>
-      </c>
-      <c r="B3" s="12">
-        <v>300</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="D3" s="48" t="s">
-        <v>57</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="14">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="B4" s="15">
-        <v>200</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="D4" s="49"/>
-      <c r="E4" s="16" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="10">
-        <v>3</v>
-      </c>
-      <c r="B5" s="10">
-        <v>3000</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="D5" s="10">
-        <v>1</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="17">
-        <v>4</v>
-      </c>
-      <c r="B6" s="17">
-        <v>1000</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="D6" s="17">
-        <v>1</v>
-      </c>
-      <c r="E6" s="17" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="19">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="B7" s="20">
-        <v>300</v>
-      </c>
-      <c r="C7" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="D7" s="50" t="s">
-        <v>54</v>
-      </c>
-      <c r="E7" s="21" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="22">
-        <v>5.2</v>
-      </c>
-      <c r="B8" s="23">
-        <v>200</v>
-      </c>
-      <c r="C8" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="D8" s="51"/>
-      <c r="E8" s="24" t="s">
+      <c r="E17" s="28" t="s">
         <v>63</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="18">
-        <v>6</v>
-      </c>
-      <c r="B9" s="18">
-        <v>3000</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="D9" s="18">
-        <v>1</v>
-      </c>
-      <c r="E9" s="18" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="25">
-        <v>7</v>
-      </c>
-      <c r="B10" s="25">
-        <v>1000</v>
-      </c>
-      <c r="C10" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="D10" s="25">
-        <v>2</v>
-      </c>
-      <c r="E10" s="25" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="27">
-        <v>8.1</v>
-      </c>
-      <c r="B11" s="28">
-        <v>300</v>
-      </c>
-      <c r="C11" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="D11" s="52" t="s">
-        <v>54</v>
-      </c>
-      <c r="E11" s="29" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="30">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="B12" s="31">
-        <v>200</v>
-      </c>
-      <c r="C12" s="31" t="s">
-        <v>60</v>
-      </c>
-      <c r="D12" s="53"/>
-      <c r="E12" s="32" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="26">
-        <v>9</v>
-      </c>
-      <c r="B13" s="26">
-        <v>3000</v>
-      </c>
-      <c r="C13" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="D13" s="26">
-        <v>1</v>
-      </c>
-      <c r="E13" s="26" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="33">
-        <v>10</v>
-      </c>
-      <c r="B14" s="33">
-        <v>1000</v>
-      </c>
-      <c r="C14" s="33" t="s">
-        <v>60</v>
-      </c>
-      <c r="D14" s="33">
-        <v>3</v>
-      </c>
-      <c r="E14" s="33" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="35">
-        <v>11.1</v>
-      </c>
-      <c r="B15" s="36">
-        <v>300</v>
-      </c>
-      <c r="C15" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="D15" s="54" t="s">
-        <v>54</v>
-      </c>
-      <c r="E15" s="37" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="38">
-        <v>11.2</v>
-      </c>
-      <c r="B16" s="39">
-        <v>200</v>
-      </c>
-      <c r="C16" s="39" t="s">
-        <v>60</v>
-      </c>
-      <c r="D16" s="55"/>
-      <c r="E16" s="40" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="34">
-        <v>12</v>
-      </c>
-      <c r="B17" s="34">
-        <v>3000</v>
-      </c>
-      <c r="C17" s="34" t="s">
-        <v>61</v>
-      </c>
-      <c r="D17" s="34">
-        <v>1</v>
-      </c>
-      <c r="E17" s="34" t="s">
-        <v>66</v>
       </c>
     </row>
   </sheetData>
